--- a/other/配置表/y-引导表.xlsx
+++ b/other/配置表/y-引导表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26055" windowHeight="14145"/>
+    <workbookView windowWidth="15825" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,19 +218,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,101 +239,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,11 +263,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,6 +329,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -370,187 +370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,11 +575,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,21 +610,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,16 +638,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -657,7 +657,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/other/配置表/y-引导表.xlsx
+++ b/other/配置表/y-引导表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1127\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1050BD-7ED4-4E93-9B39-4AFCD31493AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3935CF-6FFA-4C16-85FF-4562C6FEBC4B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -196,9 +196,6 @@
     <t>打开背包，查看获得的装备|点击装备，查看/穿戴装备|点击穿戴，穿戴装备的勇气更加强大！</t>
   </si>
   <si>
-    <t>1,10021001</t>
-  </si>
-  <si>
     <t>点击升级装备，让勇士装备更加强力</t>
   </si>
   <si>
@@ -208,24 +205,15 @@
     <t>点击卡牌，查看拥有的卡牌|长按卡牌将其选中|将卡牌拖动到上方区域，即可装备卡牌</t>
   </si>
   <si>
-    <r>
-      <t>1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1001100101</t>
-    </r>
+    <t>1,1001100102</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,1001200101</t>
+    <t>1,1001200202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1002100101</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +604,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -665,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -695,14 +683,14 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -713,13 +701,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
